--- a/数据整理/stocks/A股/上证主板/601995-中金公司.xlsx
+++ b/数据整理/stocks/A股/上证主板/601995-中金公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3441,4 +3442,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2643</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601995-中金公司.xlsx
+++ b/数据整理/stocks/A股/上证主板/601995-中金公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4220,4 +4221,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1156</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010367</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010368</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>58.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>58.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>58.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601995-中金公司.xlsx
+++ b/数据整理/stocks/A股/上证主板/601995-中金公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4885,4 +4886,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601995-中金公司.xlsx
+++ b/数据整理/stocks/A股/上证主板/601995-中金公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4894,7 +4895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4905,17 +4906,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4925,14 +4946,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.59</v>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4523</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4941,14 +4984,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.85</v>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4957,14 +5022,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4</v>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4973,13 +5060,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>51</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601995-中金公司.xlsx
+++ b/数据整理/stocks/A股/上证主板/601995-中金公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5103,7 +5104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5114,17 +5115,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5134,14 +5155,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.62</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -5150,14 +5245,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="4">
@@ -5166,14 +5261,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.85</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="5">
@@ -5182,14 +5277,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6">
@@ -5198,13 +5293,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>51</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601995-中金公司.xlsx
+++ b/数据整理/stocks/A股/上证主板/601995-中金公司.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5198,7 +5199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5209,17 +5210,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5229,14 +5250,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>630009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6999</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5245,14 +5288,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>630109</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.62</v>
       </c>
     </row>
     <row r="4">
@@ -5261,14 +5326,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.59</v>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5277,14 +5364,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.85</v>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -5293,14 +5402,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7">
@@ -5309,13 +5556,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>51</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601995-中金公司.xlsx
+++ b/数据整理/stocks/A股/上证主板/601995-中金公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.97</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.62</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.85</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>51</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.69</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013051</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013052</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013491</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013490</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -845,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -939,7 +1164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1147,7 +1372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1811,7 +2036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2589,7 +2814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3595,7 +3820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
